--- a/SchedulingData/dynamic15/pso/scheduling2_11.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling2_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>260.96</v>
+        <v>220.92</v>
       </c>
       <c r="D2" t="n">
-        <v>325.96</v>
+        <v>297.36</v>
       </c>
       <c r="E2" t="n">
-        <v>11.524</v>
+        <v>13.904</v>
       </c>
     </row>
     <row r="3">
@@ -485,36 +485,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>243.24</v>
+        <v>272.14</v>
       </c>
       <c r="D3" t="n">
-        <v>317.82</v>
+        <v>334.84</v>
       </c>
       <c r="E3" t="n">
-        <v>11.048</v>
+        <v>9.176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>207.64</v>
+        <v>334.84</v>
       </c>
       <c r="D4" t="n">
-        <v>261.34</v>
+        <v>374.68</v>
       </c>
       <c r="E4" t="n">
-        <v>13.036</v>
+        <v>5.832</v>
       </c>
     </row>
     <row r="5">
@@ -523,17 +523,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>243.7</v>
+        <v>205.76</v>
       </c>
       <c r="D5" t="n">
-        <v>305.28</v>
+        <v>271.72</v>
       </c>
       <c r="E5" t="n">
-        <v>10.652</v>
+        <v>14.348</v>
       </c>
     </row>
     <row r="6">
@@ -542,128 +542,128 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>325.96</v>
+        <v>217.2</v>
       </c>
       <c r="D6" t="n">
-        <v>399.6</v>
+        <v>273.22</v>
       </c>
       <c r="E6" t="n">
-        <v>7.26</v>
+        <v>14.188</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>231.9</v>
+        <v>251.64</v>
       </c>
       <c r="D7" t="n">
-        <v>276.7</v>
+        <v>322.54</v>
       </c>
       <c r="E7" t="n">
-        <v>12.96</v>
+        <v>10.816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>399.6</v>
+        <v>242.42</v>
       </c>
       <c r="D8" t="n">
-        <v>457.3</v>
+        <v>285.5</v>
       </c>
       <c r="E8" t="n">
-        <v>3.62</v>
+        <v>11.64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>305.28</v>
+        <v>273.22</v>
       </c>
       <c r="D9" t="n">
-        <v>373.28</v>
+        <v>335.3</v>
       </c>
       <c r="E9" t="n">
-        <v>6.452</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>276.7</v>
+        <v>335.3</v>
       </c>
       <c r="D10" t="n">
-        <v>337.86</v>
+        <v>389.42</v>
       </c>
       <c r="E10" t="n">
-        <v>8.984</v>
+        <v>6.308</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>457.3</v>
+        <v>374.68</v>
       </c>
       <c r="D11" t="n">
-        <v>505.3</v>
+        <v>452.48</v>
       </c>
       <c r="E11" t="n">
-        <v>1.46</v>
+        <v>1.632</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>505.3</v>
+        <v>452.48</v>
       </c>
       <c r="D12" t="n">
-        <v>613.6799999999999</v>
+        <v>555.62</v>
       </c>
       <c r="E12" t="n">
         <v>30</v>
@@ -675,17 +675,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>337.86</v>
+        <v>285.5</v>
       </c>
       <c r="D13" t="n">
-        <v>430.06</v>
+        <v>333.3</v>
       </c>
       <c r="E13" t="n">
-        <v>3.884</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -694,74 +694,74 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>261.34</v>
+        <v>322.54</v>
       </c>
       <c r="D14" t="n">
-        <v>336.12</v>
+        <v>368.88</v>
       </c>
       <c r="E14" t="n">
-        <v>8.667999999999999</v>
+        <v>7.312</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>336.12</v>
+        <v>297.36</v>
       </c>
       <c r="D15" t="n">
-        <v>414.42</v>
+        <v>342.26</v>
       </c>
       <c r="E15" t="n">
-        <v>3.448</v>
+        <v>11.544</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>414.42</v>
+        <v>342.26</v>
       </c>
       <c r="D16" t="n">
-        <v>465.36</v>
+        <v>387.14</v>
       </c>
       <c r="E16" t="n">
-        <v>0.484</v>
+        <v>7.696</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>465.36</v>
+        <v>555.62</v>
       </c>
       <c r="D17" t="n">
-        <v>555.99</v>
+        <v>634.14</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>26.788</v>
       </c>
     </row>
     <row r="18">
@@ -770,17 +770,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>212.9</v>
+        <v>387.14</v>
       </c>
       <c r="D18" t="n">
-        <v>260.28</v>
+        <v>459.5</v>
       </c>
       <c r="E18" t="n">
-        <v>13.652</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="19">
@@ -789,112 +789,112 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>373.28</v>
+        <v>271.72</v>
       </c>
       <c r="D19" t="n">
-        <v>425.46</v>
+        <v>328.52</v>
       </c>
       <c r="E19" t="n">
-        <v>2.364</v>
+        <v>11.268</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>317.82</v>
+        <v>389.42</v>
       </c>
       <c r="D20" t="n">
-        <v>372.24</v>
+        <v>452.76</v>
       </c>
       <c r="E20" t="n">
-        <v>6.736</v>
+        <v>4.064</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>555.99</v>
+        <v>328.52</v>
       </c>
       <c r="D21" t="n">
-        <v>596.21</v>
+        <v>394.48</v>
       </c>
       <c r="E21" t="n">
-        <v>27.668</v>
+        <v>8.292</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>613.6799999999999</v>
+        <v>459.5</v>
       </c>
       <c r="D22" t="n">
-        <v>652.4</v>
+        <v>504.3</v>
       </c>
       <c r="E22" t="n">
-        <v>26.828</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>372.24</v>
+        <v>504.3</v>
       </c>
       <c r="D23" t="n">
-        <v>416.7</v>
+        <v>587.6</v>
       </c>
       <c r="E23" t="n">
-        <v>3.92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>425.46</v>
+        <v>368.88</v>
       </c>
       <c r="D24" t="n">
-        <v>517.23</v>
+        <v>424.62</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>4.348</v>
       </c>
     </row>
     <row r="25">
@@ -903,98 +903,98 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>517.23</v>
+        <v>394.48</v>
       </c>
       <c r="D25" t="n">
-        <v>593.73</v>
+        <v>436.16</v>
       </c>
       <c r="E25" t="n">
-        <v>25.02</v>
+        <v>4.764</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>416.7</v>
+        <v>333.3</v>
       </c>
       <c r="D26" t="n">
-        <v>490.56</v>
+        <v>421.42</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>3.788</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>490.56</v>
+        <v>421.42</v>
       </c>
       <c r="D27" t="n">
-        <v>555.58</v>
+        <v>467.38</v>
       </c>
       <c r="E27" t="n">
-        <v>25.688</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>260.28</v>
+        <v>467.38</v>
       </c>
       <c r="D28" t="n">
-        <v>308.8</v>
+        <v>562.26</v>
       </c>
       <c r="E28" t="n">
-        <v>10.44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>430.06</v>
+        <v>436.16</v>
       </c>
       <c r="D29" t="n">
-        <v>484.74</v>
+        <v>496.86</v>
       </c>
       <c r="E29" t="n">
-        <v>0.036</v>
+        <v>1.324</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>484.74</v>
+        <v>496.86</v>
       </c>
       <c r="D30" t="n">
-        <v>576.17</v>
+        <v>566.11</v>
       </c>
       <c r="E30" t="n">
         <v>30</v>
@@ -1013,59 +1013,59 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555.58</v>
+        <v>452.76</v>
       </c>
       <c r="D31" t="n">
-        <v>636.92</v>
+        <v>492.38</v>
       </c>
       <c r="E31" t="n">
-        <v>23.144</v>
+        <v>1.732</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>576.17</v>
+        <v>492.38</v>
       </c>
       <c r="D32" t="n">
-        <v>639.0700000000001</v>
+        <v>565.8200000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>27.84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>596.21</v>
+        <v>565.8200000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>661.01</v>
+        <v>615.6799999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>24.808</v>
+        <v>27.184</v>
       </c>
     </row>
     <row r="34">
@@ -1074,112 +1074,112 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>639.0700000000001</v>
+        <v>562.26</v>
       </c>
       <c r="D34" t="n">
-        <v>691.99</v>
+        <v>627.1799999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>24.668</v>
+        <v>27.668</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>661.01</v>
+        <v>566.11</v>
       </c>
       <c r="D35" t="n">
-        <v>705.01</v>
+        <v>643.35</v>
       </c>
       <c r="E35" t="n">
-        <v>22.528</v>
+        <v>26.416</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>308.8</v>
+        <v>634.14</v>
       </c>
       <c r="D36" t="n">
-        <v>377.9</v>
+        <v>689.04</v>
       </c>
       <c r="E36" t="n">
-        <v>7.16</v>
+        <v>23.408</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>377.9</v>
+        <v>689.04</v>
       </c>
       <c r="D37" t="n">
-        <v>430.04</v>
+        <v>749.34</v>
       </c>
       <c r="E37" t="n">
-        <v>3.576</v>
+        <v>19.988</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>691.99</v>
+        <v>643.35</v>
       </c>
       <c r="D38" t="n">
-        <v>754.6900000000001</v>
+        <v>696.25</v>
       </c>
       <c r="E38" t="n">
-        <v>21.488</v>
+        <v>24.256</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>705.01</v>
+        <v>696.25</v>
       </c>
       <c r="D39" t="n">
-        <v>750.51</v>
+        <v>729.25</v>
       </c>
       <c r="E39" t="n">
-        <v>19.108</v>
+        <v>22.096</v>
       </c>
     </row>
     <row r="40">
@@ -1188,74 +1188,74 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>636.92</v>
+        <v>749.34</v>
       </c>
       <c r="D40" t="n">
-        <v>695.36</v>
+        <v>783.4400000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>20.9</v>
+        <v>17.708</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>593.73</v>
+        <v>587.6</v>
       </c>
       <c r="D41" t="n">
-        <v>654.37</v>
+        <v>660.4</v>
       </c>
       <c r="E41" t="n">
-        <v>22.056</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>652.4</v>
+        <v>424.62</v>
       </c>
       <c r="D42" t="n">
-        <v>700.0599999999999</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>23.692</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>654.37</v>
+        <v>501</v>
       </c>
       <c r="D43" t="n">
-        <v>708.79</v>
+        <v>570.4400000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>19.724</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
@@ -1264,55 +1264,112 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>430.04</v>
+        <v>660.4</v>
       </c>
       <c r="D44" t="n">
-        <v>485.8</v>
+        <v>719.26</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6</v>
+        <v>23.084</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>485.8</v>
+        <v>627.1799999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>566.4</v>
+        <v>674.96</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>24.02</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>pond40</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>674.96</v>
+      </c>
+      <c r="D46" t="n">
+        <v>737.78</v>
+      </c>
+      <c r="E46" t="n">
+        <v>20.848</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
         <v>2</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>pond12</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>570.4400000000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>636.6799999999999</v>
+      </c>
+      <c r="E47" t="n">
+        <v>27.036</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>pond8</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>636.6799999999999</v>
+      </c>
+      <c r="D48" t="n">
+        <v>694.48</v>
+      </c>
+      <c r="E48" t="n">
+        <v>23.856</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>pond46</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>750.51</v>
-      </c>
-      <c r="D46" t="n">
-        <v>811.3099999999999</v>
-      </c>
-      <c r="E46" t="n">
-        <v>15.148</v>
+      <c r="C49" t="n">
+        <v>615.6799999999999</v>
+      </c>
+      <c r="D49" t="n">
+        <v>671.58</v>
+      </c>
+      <c r="E49" t="n">
+        <v>23.224</v>
       </c>
     </row>
   </sheetData>
